--- a/CERTReview2017/LBData.xlsx
+++ b/CERTReview2017/LBData.xlsx
@@ -9,20 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25960" yWindow="460" windowWidth="24500" windowHeight="21320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2500" yWindow="700" windowWidth="24500" windowHeight="21320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="LBDOpp" sheetId="2" r:id="rId2"/>
-    <sheet name="LBOpp" sheetId="3" r:id="rId3"/>
+    <sheet name="No D Option" sheetId="6" r:id="rId2"/>
+    <sheet name="LBSameSide" sheetId="4" r:id="rId3"/>
+    <sheet name="LBDSameSide" sheetId="5" r:id="rId4"/>
+    <sheet name="LBDOpp" sheetId="2" r:id="rId5"/>
+    <sheet name="LBOpp" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="for_spreadsheet" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="for_spreadsheet_1" localSheetId="0">Sheet1!$L$4:$X$22</definedName>
+    <definedName name="for_spreadsheet_10" localSheetId="1">'No D Option'!$M$23:$W$41</definedName>
+    <definedName name="for_spreadsheet_2" localSheetId="1">'No D Option'!#REF!</definedName>
     <definedName name="for_spreadsheet_2" localSheetId="0">Sheet1!$A$2:$K$20</definedName>
+    <definedName name="for_spreadsheet_3" localSheetId="1">'No D Option'!#REF!</definedName>
     <definedName name="for_spreadsheet_3" localSheetId="0">Sheet1!$A$23:$K$41</definedName>
     <definedName name="for_spreadsheet_4" localSheetId="0">Sheet1!$M$23:$AA$41</definedName>
+    <definedName name="for_spreadsheet_5" localSheetId="1">'No D Option'!#REF!</definedName>
     <definedName name="for_spreadsheet_5" localSheetId="0">Sheet1!$M$2:$W$20</definedName>
+    <definedName name="for_spreadsheet_6" localSheetId="1">'No D Option'!#REF!</definedName>
+    <definedName name="for_spreadsheet_7" localSheetId="1">'No D Option'!$A$2:$K$20</definedName>
+    <definedName name="for_spreadsheet_8" localSheetId="1">'No D Option'!$A$23:$K$41</definedName>
+    <definedName name="for_spreadsheet_9" localSheetId="1">'No D Option'!$M$2:$W$20</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -68,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="for_spreadsheet2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="for_spreadsheet10" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
@@ -85,7 +96,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="for_spreadsheet3" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="for_spreadsheet2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
@@ -102,7 +113,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="for_spreadsheet4" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="for_spreadsheet21" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
@@ -119,7 +130,113 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="for_spreadsheet5" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="for_spreadsheet3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="for_spreadsheet31" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="for_spreadsheet4" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="for_spreadsheet5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="for_spreadsheet51" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="for_spreadsheet6" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="for_spreadsheet7" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="for_spreadsheet8" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="for_spreadsheet9" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields>
         <textField/>
@@ -130,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="29">
   <si>
     <t>Area</t>
   </si>
@@ -179,12 +296,51 @@
   <si>
     <t>Load Balance Old (Same Side Pins)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> crash</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>5x5</t>
+  </si>
+  <si>
+    <t>6x6</t>
+  </si>
+  <si>
+    <t>7x7</t>
+  </si>
+  <si>
+    <t>8x8</t>
+  </si>
+  <si>
+    <t>9x9</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>Load Balance Original (Unbalanced Lattice)</t>
+  </si>
+  <si>
+    <t>Load Balanced By Dimension (Same Side)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +352,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,23 +412,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_5" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_4" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_10" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_9" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_8" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +713,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:J41"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,14 +743,14 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="2" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -580,71 +759,71 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -677,34 +856,34 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>1.8536600000000001</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>1.13445</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>1.67164</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="6">
         <v>1.3235300000000001</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <v>1.65306</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="6">
         <v>1.5177</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="6">
         <v>1.54217</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="6">
         <v>1.4013800000000001</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="6">
         <v>1.51976</v>
       </c>
       <c r="W3" t="s">
@@ -712,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1.8</v>
       </c>
       <c r="B4">
@@ -745,34 +924,34 @@
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>1.8</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>1.09924</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>1.13472</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>1.43791</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="6">
         <v>1.8682099999999999</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <v>1.7526299999999999</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>1.8398000000000001</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="6">
         <v>2.7400600000000002</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="6">
         <v>3.2622800000000001</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="6">
         <v>1.69014</v>
       </c>
       <c r="W4" t="s">
@@ -780,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1.6</v>
       </c>
       <c r="B5">
@@ -813,34 +992,34 @@
       <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>1.6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>1.08633</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>1.11765</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>1.59762</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>1.5580700000000001</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>1.80244</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>2.34971</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>4.7002600000000001</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="6">
         <v>3.77644</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="6">
         <v>3.4413</v>
       </c>
       <c r="W5" t="s">
@@ -851,7 +1030,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1.4</v>
       </c>
       <c r="B6">
@@ -884,34 +1063,34 @@
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>1.4</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
         <v>1.05193</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="6">
         <v>1.1014900000000001</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <v>1.4324699999999999</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>1.76803</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>1.9663900000000001</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>2.68811</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="6">
         <v>2.8272300000000001</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="6">
         <v>3.1690100000000001</v>
       </c>
       <c r="W6" t="s">
@@ -922,7 +1101,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1.2</v>
       </c>
       <c r="B7">
@@ -955,34 +1134,34 @@
       <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1.2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1.04192</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>1.18286</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>1.4185099999999999</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>1.54199</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>1.6197999999999999</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>2.1918500000000001</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>3.9392100000000001</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="6">
         <v>3.2367599999999999</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="6">
         <v>3.11111</v>
       </c>
       <c r="W7" t="s">
@@ -993,7 +1172,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8">
@@ -1026,34 +1205,34 @@
       <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>1.0567</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>1.2067699999999999</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>1.31481</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>1.3306899999999999</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>1.4527600000000001</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>1.6980200000000001</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>2.4357799999999998</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="6">
         <v>2.4545499999999998</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="6">
         <v>3.5242300000000002</v>
       </c>
       <c r="W8" t="s">
@@ -1064,7 +1243,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>0.8</v>
       </c>
       <c r="B9">
@@ -1097,34 +1276,34 @@
       <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.8</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>1.0505899999999999</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>1.0966400000000001</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>1.2036100000000001</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>1.56993</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>1.5100100000000001</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>1.75291</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>1.7377800000000001</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="6">
         <v>2.23177</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="6">
         <v>2.5764900000000002</v>
       </c>
       <c r="W9" t="s">
@@ -1135,7 +1314,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>0.6</v>
       </c>
       <c r="B10">
@@ -1168,34 +1347,34 @@
       <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>0.6</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>1.0531600000000001</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>1.09114</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>1.06995</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>1.2147300000000001</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>1.42357</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>1.7651300000000001</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>1.6134500000000001</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="6">
         <v>1.6775100000000001</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="6">
         <v>2.45614</v>
       </c>
       <c r="W10" t="s">
@@ -1206,7 +1385,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>0.4</v>
       </c>
       <c r="B11">
@@ -1239,34 +1418,34 @@
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>0.4</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>1.09456</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>1.0870299999999999</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>1.11991</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>1.2124699999999999</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>1.2261299999999999</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>1.34585</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>1.21455</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="6">
         <v>2.0780099999999999</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="6">
         <v>2.1276600000000001</v>
       </c>
       <c r="W11" t="s">
@@ -1277,7 +1456,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>0.2</v>
       </c>
       <c r="B12">
@@ -1310,34 +1489,34 @@
       <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>0.2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
         <v>1.04251</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>1.0384599999999999</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="6">
         <v>1.0736300000000001</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="6">
         <v>1.1121399999999999</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>1.2376</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="6">
         <v>1.0816399999999999</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="6">
         <v>1.3105100000000001</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="6">
         <v>1.56427</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="6">
         <v>1.5223899999999999</v>
       </c>
       <c r="W12" t="s">
@@ -1348,7 +1527,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>0.1</v>
       </c>
       <c r="B13">
@@ -1381,34 +1560,34 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>0.1</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>1.0275799999999999</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>1.0417799999999999</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="6">
         <v>1.09735</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="6">
         <v>1.0423199999999999</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="6">
         <v>1.0980799999999999</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="6">
         <v>1.12418</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="6">
         <v>1.12924</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="6">
         <v>1.09476</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="6">
         <v>1.2036899999999999</v>
       </c>
       <c r="W13" t="s">
@@ -1419,7 +1598,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>0.08</v>
       </c>
       <c r="B14">
@@ -1452,34 +1631,34 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.08</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>1.0127900000000001</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>1.03722</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>1.0905899999999999</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="6">
         <v>1.0845899999999999</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="6">
         <v>1.0896399999999999</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="6">
         <v>1.1277299999999999</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="6">
         <v>1.0919300000000001</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="6">
         <v>1.1104499999999999</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="6">
         <v>1.17828</v>
       </c>
       <c r="W14" t="s">
@@ -1490,7 +1669,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>0.06</v>
       </c>
       <c r="B15">
@@ -1523,34 +1702,34 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>0.06</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="6">
         <v>1.00732</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>1.0327</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="6">
         <v>1.03677</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="6">
         <v>1.01424</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="6">
         <v>1.0874600000000001</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="6">
         <v>1.0817699999999999</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="6">
         <v>1.04756</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="6">
         <v>1.09171</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="6">
         <v>1.0338799999999999</v>
       </c>
       <c r="W15" t="s">
@@ -1561,7 +1740,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>0.05</v>
       </c>
       <c r="B16">
@@ -1594,34 +1773,34 @@
       <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.05</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
         <v>1.02125</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>1.0258</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="6">
         <v>1.0495399999999999</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="6">
         <v>1.08819</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="6">
         <v>1.0605199999999999</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="6">
         <v>1.05186</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="6">
         <v>1.0831900000000001</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="6">
         <v>1.0787899999999999</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="6">
         <v>1.07484</v>
       </c>
       <c r="W16" t="s">
@@ -1632,7 +1811,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>0.04</v>
       </c>
       <c r="B17">
@@ -1665,34 +1844,34 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>0.04</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="6">
         <v>1.0051099999999999</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <v>1.0185900000000001</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="6">
         <v>1.0008900000000001</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="6">
         <v>1.0607200000000001</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="6">
         <v>1.0747</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="6">
         <v>1.07267</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="6">
         <v>1.0806100000000001</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="6">
         <v>1.0925400000000001</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="6">
         <v>1.1449100000000001</v>
       </c>
       <c r="W17" t="s">
@@ -1703,7 +1882,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>0.03</v>
       </c>
       <c r="B18">
@@ -1736,34 +1915,34 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>0.03</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="6">
         <v>1.00457</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>1.0132000000000001</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="6">
         <v>1.0210600000000001</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="6">
         <v>1.04535</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="6">
         <v>1.06027</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="6">
         <v>1.0496399999999999</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="6">
         <v>1.0605899999999999</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="6">
         <v>1.0764499999999999</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="6">
         <v>1.04132</v>
       </c>
       <c r="W18" t="s">
@@ -1774,7 +1953,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>0.02</v>
       </c>
       <c r="B19">
@@ -1807,34 +1986,34 @@
       <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>0.02</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>1.00613</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>1.0171699999999999</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="6">
         <v>1.00807</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="6">
         <v>1.0337499999999999</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>1.0216099999999999</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>1.0244599999999999</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="6">
         <v>1.09534</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="6">
         <v>1.0764400000000001</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="6">
         <v>1.0966400000000001</v>
       </c>
       <c r="W19" t="s">
@@ -1845,7 +2024,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>0.01</v>
       </c>
       <c r="B20">
@@ -1878,34 +2057,34 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>0.01</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="6">
         <v>1.0029600000000001</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <v>1.01007</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <v>1.0084900000000001</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="6">
         <v>1.00919</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <v>1.0388299999999999</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <v>1.0179800000000001</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="6">
         <v>1.0923400000000001</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="6">
         <v>1.04349</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="6">
         <v>1.02182</v>
       </c>
       <c r="W20" t="s">
@@ -1949,69 +2128,69 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="1">
@@ -2044,7 +2223,7 @@
       <c r="K24" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="1">
@@ -2079,7 +2258,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1.8</v>
       </c>
       <c r="B25" s="1">
@@ -2112,7 +2291,7 @@
       <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <v>1.8</v>
       </c>
       <c r="N25" s="1">
@@ -2147,7 +2326,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>1.6</v>
       </c>
       <c r="B26" s="1">
@@ -2180,7 +2359,7 @@
       <c r="K26" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="4">
         <v>1.6</v>
       </c>
       <c r="N26" s="1">
@@ -2215,7 +2394,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1.4</v>
       </c>
       <c r="B27" s="1">
@@ -2248,7 +2427,7 @@
       <c r="K27" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <v>1.4</v>
       </c>
       <c r="N27" s="1">
@@ -2283,7 +2462,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>1.2</v>
       </c>
       <c r="B28" s="1">
@@ -2316,7 +2495,7 @@
       <c r="K28" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="4">
         <v>1.2</v>
       </c>
       <c r="N28" s="1">
@@ -2351,7 +2530,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="1">
@@ -2384,7 +2563,7 @@
       <c r="K29" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
         <v>1</v>
       </c>
       <c r="N29" s="1">
@@ -2419,7 +2598,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>0.8</v>
       </c>
       <c r="B30" s="1">
@@ -2452,7 +2631,7 @@
       <c r="K30" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="4">
         <v>0.8</v>
       </c>
       <c r="N30" s="1">
@@ -2487,7 +2666,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>0.6</v>
       </c>
       <c r="B31" s="1">
@@ -2520,7 +2699,7 @@
       <c r="K31" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="4">
         <v>0.6</v>
       </c>
       <c r="N31" s="1">
@@ -2555,7 +2734,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>0.4</v>
       </c>
       <c r="B32" s="1">
@@ -2588,7 +2767,7 @@
       <c r="K32" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="4">
         <v>0.4</v>
       </c>
       <c r="N32" s="1">
@@ -2623,7 +2802,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>0.2</v>
       </c>
       <c r="B33" s="1">
@@ -2656,7 +2835,7 @@
       <c r="K33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="4">
         <v>0.2</v>
       </c>
       <c r="N33" s="1">
@@ -2691,7 +2870,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>0.1</v>
       </c>
       <c r="B34" s="1">
@@ -2724,7 +2903,7 @@
       <c r="K34" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="4">
         <v>0.1</v>
       </c>
       <c r="N34" s="1">
@@ -2759,7 +2938,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>0.08</v>
       </c>
       <c r="B35" s="1">
@@ -2792,7 +2971,7 @@
       <c r="K35" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="4">
         <v>0.08</v>
       </c>
       <c r="N35" s="1">
@@ -2827,7 +3006,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>0.06</v>
       </c>
       <c r="B36" s="1">
@@ -2860,7 +3039,7 @@
       <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="4">
         <v>0.06</v>
       </c>
       <c r="N36" s="1">
@@ -2895,7 +3074,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>0.05</v>
       </c>
       <c r="B37" s="1">
@@ -2928,7 +3107,7 @@
       <c r="K37" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="4">
         <v>0.05</v>
       </c>
       <c r="N37" s="1">
@@ -2963,7 +3142,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>0.04</v>
       </c>
       <c r="B38" s="1">
@@ -2996,7 +3175,7 @@
       <c r="K38" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="4">
         <v>0.04</v>
       </c>
       <c r="N38" s="1">
@@ -3031,7 +3210,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>0.03</v>
       </c>
       <c r="B39" s="1">
@@ -3064,7 +3243,7 @@
       <c r="K39" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="4">
         <v>0.03</v>
       </c>
       <c r="N39" s="1">
@@ -3099,7 +3278,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>0.02</v>
       </c>
       <c r="B40" s="1">
@@ -3132,7 +3311,7 @@
       <c r="K40" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="4">
         <v>0.02</v>
       </c>
       <c r="N40" s="1">
@@ -3167,7 +3346,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>0.01</v>
       </c>
       <c r="B41" s="1">
@@ -3200,7 +3379,7 @@
       <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="4">
         <v>0.01</v>
       </c>
       <c r="N41" s="1">
@@ -3238,8 +3417,8 @@
   <mergeCells count="4">
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="M22:W22"/>
+    <mergeCell ref="M1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3247,10 +3426,3736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="1.5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="22" width="8.1640625" customWidth="1"/>
+    <col min="23" max="23" width="1.5" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" customWidth="1"/>
+    <col min="25" max="33" width="8.1640625" customWidth="1"/>
+    <col min="34" max="34" width="1.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.20536</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4751799999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.3975200000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.36744</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.4275100000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.6254200000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.63934</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.13445</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.67164</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.3235300000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.65306</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.5177</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.54217</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.4013800000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.51976</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.075</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3899600000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.16364</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4784900000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.3353900000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.4367300000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6271199999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.69693</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.5463899999999999</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0505100000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.0827100000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.3834599999999999</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.3355600000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.29836</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.4248799999999999</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.4589700000000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.59944</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.69014</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0942700000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1703300000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2054800000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.4756899999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.18919</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.6186199999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.60894</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.64676</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.9347000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.0264200000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.1935500000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.1569700000000001</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.30769</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.4338500000000001</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.3940300000000001</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.3875299999999999</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.5927</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.76322</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0785</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0623</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0436100000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.25369</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.3436999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.7452099999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.50196</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.74194</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.2516600000000002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.0798000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.1068</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.34707</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.7307699999999999</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.4528300000000001</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.8118399999999999</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.61663</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0646599999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.16594</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.84155</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.24481</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.4379500000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.3162400000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.67221</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.6110500000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.68651</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.08982</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.1284799999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.25346</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.2820499999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.25301</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.7703199999999999</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.4826299999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.70926</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.6427099999999999</v>
+      </c>
+      <c r="W7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0276700000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0813999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.66581</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.16686</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.32857</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.2125999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.3087899999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.73394</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.69651</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.0614399999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.0616000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.1673</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.3769899999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.24444</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.67726</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.48211</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.50309</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.64103</v>
+      </c>
+      <c r="W8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.00539</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.07843</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.2423900000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.21888</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.32965</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.62025</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.40503</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.6791</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.03786</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.0644100000000001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2671600000000001</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.31579</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.37626</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.40286</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1.44696</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.4087000000000001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.64076</v>
+      </c>
+      <c r="W9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0091600000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.08826</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.19048</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.1424099999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.2202299999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.2383900000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.53759</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.44509</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.02013</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.0975600000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.17936</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.23865</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.1650499999999999</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.2841899999999999</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.4534400000000001</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.2910600000000001</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.32013</v>
+      </c>
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0785499999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0905899999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0405</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.21576</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.16923</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.1600900000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.12629</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.38937</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.47929</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.08708</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.0482400000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.08222</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.0617799999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.2399500000000001</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.15526</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1.1085100000000001</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.41856</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.4639599999999999</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.04278</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.04741</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0752200000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0986499999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.0638300000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.10162</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.14798</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.1915100000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.0438499999999999</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.06826</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.0380199999999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.05623</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.0928599999999999</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.1070199999999999</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.21923</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.2860799999999999</v>
+      </c>
+      <c r="W12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0142100000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.06717</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.04461</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0471600000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.0717300000000001</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.04762</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.13249</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.0145200000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.06382</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.0847899999999999</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.0322199999999999</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.05965</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.08064</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.0953200000000001</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0133099999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.03474</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.04114</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.04061</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0879799999999999</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.0884400000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.00326</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.03738</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.0739399999999999</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.0561199999999999</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.08775</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.0837600000000001</v>
+      </c>
+      <c r="W14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.01816</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.02969</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0604</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0864499999999999</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.07748</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.07019</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.0634699999999999</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.01328</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.03467</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.0608</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.0908800000000001</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.08521</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.0814699999999999</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1.0635600000000001</v>
+      </c>
+      <c r="W15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.00671</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.02257</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0509599999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.07697</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.08246</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.08371</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.0866199999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.00719</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.02003</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.0432600000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.0806899999999999</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.0938399999999999</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.10856</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1.0869599999999999</v>
+      </c>
+      <c r="W16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0058400000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0185299999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.00844</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0284199999999999</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0555099999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.0994900000000001</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.0496000000000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.00526</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.01942</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.0086900000000001</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.03234</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.0448299999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.0953900000000001</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.07589</v>
+      </c>
+      <c r="W17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0045500000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0134700000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0366299999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0647899999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0848899999999999</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.06606</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.03406</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.0057700000000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.0067200000000001</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.03871</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.0848899999999999</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.0814600000000001</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.03406</v>
+      </c>
+      <c r="W18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.00414</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.00661</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.00282</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.00369</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0230999999999999</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0027999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.0451299999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.0485500000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.00403</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.00874</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.0038199999999999</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.01427</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1.0238499999999999</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.00326</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.0469599999999999</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.0485500000000001</v>
+      </c>
+      <c r="W19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0078</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0139899999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.00038</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0121899999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0180100000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.00265</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.0355399999999999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.0096700000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.0026200000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0078800000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.0137400000000001</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.00126</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.0132000000000001</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.01755</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1.0027600000000001</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.03491</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1.0097</v>
+      </c>
+      <c r="W20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.94872</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5981300000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.36842</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0979000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.2784800000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.6776</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.5346500000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.8051900000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.0534400000000002</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.36134</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.76471</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1.47929</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.74194</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.59535</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1.792</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1.8202199999999999</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.9230799999999999</v>
+      </c>
+      <c r="W24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.7963</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.6101700000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2504900000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.2288899999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.7735799999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.61199</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.2562799999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3.4645700000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.0505100000000001</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.4642900000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.9161699999999999</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1.7924500000000001</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.6774199999999999</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2.0310899999999998</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2.4615399999999998</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.7380500000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.4186000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.42205</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.33094</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.5214400000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.5382099999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.3113199999999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3.39506</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.12334</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.3666700000000001</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.5211300000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.5124599999999999</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.8815999999999999</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2.4186000000000001</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2.4211999999999998</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.2591300000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.6377600000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.2281900000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.76946</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.3723200000000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.64418</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.45946</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.52685</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.6036000000000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.0798000000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.3622399999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.5040500000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.68971</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.7888200000000001</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.81762</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2.0259</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2.5063300000000002</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2.9062100000000002</v>
+      </c>
+      <c r="W27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.21557</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.6076299999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.1398199999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.7542399999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.9725999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.5015000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.2223799999999998</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.8755999999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.9266999999999999</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.08982</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.3164199999999999</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1.53392</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.83206</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.72197</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.77437</v>
+      </c>
+      <c r="T28" s="1">
+        <v>2.18947</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1.9636400000000001</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2.5581399999999999</v>
+      </c>
+      <c r="W28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.16754</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.50773</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.9922200000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.6350500000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.78302</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.23291</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.5396800000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.6730299999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4.3217299999999996</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.0614399999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.2209300000000001</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.7404999999999999</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.5826899999999999</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.5724100000000001</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.9052199999999999</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2.0568599999999999</v>
+      </c>
+      <c r="U29" s="1">
+        <v>2.5256099999999999</v>
+      </c>
+      <c r="V29" s="1">
+        <v>2.7688999999999999</v>
+      </c>
+      <c r="W29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.1486000000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.51935</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.7057599999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.3734199999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.9169200000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.9456599999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.56263</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.6234799999999998</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.6791</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.03786</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.29399</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.5767599999999999</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.8163499999999999</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.6333299999999999</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.94892</v>
+      </c>
+      <c r="U30" s="1">
+        <v>2.07897</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.10711</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.4001699999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.6496200000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.98312</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.2978700000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.6989799999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.88852</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.4059400000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3.09917</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.02013</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.2419100000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1.45577</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1.62018</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1.8917600000000001</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1.54088</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1.6801900000000001</v>
+      </c>
+      <c r="U31" s="1">
+        <v>2.0920100000000001</v>
+      </c>
+      <c r="V31" s="1">
+        <v>2.4205700000000001</v>
+      </c>
+      <c r="W31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0785499999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.2634399999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.5712600000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.6569799999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.0299200000000002</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.1985399999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.7365699999999999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.7503</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.06311</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.08708</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.1583600000000001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1.3535600000000001</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.5315099999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.49309</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.6214200000000001</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1.84091</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2.06311</v>
+      </c>
+      <c r="W32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.04278</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.12703</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.4094100000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.59606</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.76163</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.29236</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.4455800000000001</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.0438499999999999</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.1331500000000001</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1.14008</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1.3022400000000001</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1.41835</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1.46784</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1.4455800000000001</v>
+      </c>
+      <c r="W33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0142100000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.06717</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.12843</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.21254</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.2706500000000001</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.4800599999999999</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.2449399999999999</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.0145200000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.06382</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1.0847899999999999</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.21254</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1.2740400000000001</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1.1766399999999999</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1.2449399999999999</v>
+      </c>
+      <c r="W34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.0133099999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.03474</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.04114</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.1435200000000001</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.33911</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.1760200000000001</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.00326</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.03738</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1.0739399999999999</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.1435200000000001</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1.33779</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1.1760200000000001</v>
+      </c>
+      <c r="W35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.01816</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.02969</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0604</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.0864499999999999</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.14368</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.2339100000000001</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.0634699999999999</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.01328</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.03467</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.0608</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1.0908800000000001</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1.15676</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1.2339100000000001</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1.0635600000000001</v>
+      </c>
+      <c r="W36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.00671</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.02257</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0509599999999999</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.07697</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.08246</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.1987099999999999</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.0866199999999999</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.00719</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.02003</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1.0432600000000001</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1.0806899999999999</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1.0938399999999999</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1.1978500000000001</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1.0869599999999999</v>
+      </c>
+      <c r="W37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0058400000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0185299999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.00844</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.0284199999999999</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.0555099999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.0994900000000001</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.1099600000000001</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1.00526</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.01942</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.0086900000000001</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1.03234</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1.0448299999999999</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1.0953900000000001</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1.1099600000000001</v>
+      </c>
+      <c r="W38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.0045500000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0134700000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.0366299999999999</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.0647899999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.0848899999999999</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.06606</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1.03406</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.0057700000000001</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.0067200000000001</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.03871</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1.0848899999999999</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1.0814600000000001</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1.03406</v>
+      </c>
+      <c r="W39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.00414</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.00661</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.00282</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.00369</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.0230999999999999</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.0027999999999999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.0451299999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.0485500000000001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1.00403</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.00874</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.0038199999999999</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1.01427</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1.0238499999999999</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1.00326</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1.0469599999999999</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1.0485500000000001</v>
+      </c>
+      <c r="W40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0078</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.0139899999999999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.00038</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.0121899999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0180100000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.00265</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.0355399999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.0096700000000001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.0026200000000001</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.0078800000000001</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1.0137400000000001</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1.00126</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1.0132000000000001</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1.01755</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1.0027600000000001</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1.03491</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1.0097</v>
+      </c>
+      <c r="W41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M22:V22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.36134</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.76471</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1.47929</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.74194</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1.59535</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1.792</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1.8202199999999999</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1.9230799999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1.1764699999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.3361799999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.88235</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3753899999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.26891</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3592599999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5440999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.8405200000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.8739499999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1.1091200000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.48217</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.7831300000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.70139</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.9899500000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.4213300000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.8477800000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.3451300000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.9891299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1.1331100000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.36561</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7463200000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.88171</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.6004200000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.8328799999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.6170499999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.69231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.1527400000000001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.5064900000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5748899999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5992200000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.1617600000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.27027</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5625</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.3554900000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.7711299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1.13168</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.41804</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7286900000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6935500000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.58084</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.4524499999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.4906899999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.23054</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.9024399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1.13913</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.3552500000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.4365300000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.6097600000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.9395100000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.1665100000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1516799999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.9363800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1.0531600000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.3603799999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.60398</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.7050099999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.6870499999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.9018699999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.4583699999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1.09456</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.17553</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.4013199999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.53409</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.7711699999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.79667</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.8409500000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.79223</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.2624399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1.04251</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.13974</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.1826099999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.3643400000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5605100000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.74081</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.5873900000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.49509</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.7142900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1.0275799999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0417799999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.1140399999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1925600000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.2842899999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.3347199999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.26783</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.22689</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.2826599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1.0127900000000001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.03722</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0905899999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.19001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.21001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.29304</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.1968000000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.2361599999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.17828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1.00732</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0327</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.03677</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.10483</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0874600000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.20488</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.1834800000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.2807500000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.1007899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.02125</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0258</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0495399999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.08819</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0605199999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.1150100000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.18204</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.2149700000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.1762900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0051099999999999</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0185900000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0008900000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0607200000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0747</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.07267</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0981799999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.17323</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.17106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.00457</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0132000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0210600000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.04535</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.06027</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0496399999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.2654300000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.1005100000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.04132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.00613</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0171699999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.00807</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0337499999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0216099999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.0244599999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.1863600000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.0764400000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.0966400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1.0029600000000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.01007</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0084900000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.00919</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0388299999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0179800000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.2761400000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.04349</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.02182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>1.8536600000000001</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1.13445</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1.67164</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1.3235300000000001</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1.65306</v>
+      </c>
+      <c r="F1" s="6">
+        <v>1.5177</v>
+      </c>
+      <c r="G1" s="6">
+        <v>1.54217</v>
+      </c>
+      <c r="H1" s="6">
+        <v>1.4013800000000001</v>
+      </c>
+      <c r="I1" s="6">
+        <v>1.51976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1.09924</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.13472</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.43791</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.8682099999999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.7526299999999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.8398000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.7400600000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3.2622800000000001</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.69014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1.08633</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.11765</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.59762</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.5580700000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.80244</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.34971</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.7002600000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.77644</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.4413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1.05193</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1014900000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.4324699999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.76803</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.9663900000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.68811</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.8272300000000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.1690100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1.04192</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.18286</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.4185099999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.54199</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.6197999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.1918500000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.9392100000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.2367599999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.11111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1.0567</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.2067699999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.31481</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.3306899999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.4527600000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.6980200000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.4357799999999998</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.4545499999999998</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.5242300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1.0505899999999999</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.0966400000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.2036100000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.56993</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.5100100000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.75291</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.7377800000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.23177</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.5764900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1.0531600000000001</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.09114</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.06995</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.2147300000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.42357</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.7651300000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.6134500000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.6775100000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.45614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1.09456</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.0870299999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.11991</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.2124699999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.2261299999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.34585</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.21455</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.0780099999999999</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2.1276600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>1.04251</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.0384599999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.0736300000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.1121399999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.2376</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.0816399999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.3105100000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.56427</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.5223899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1.0275799999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.0417799999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.09735</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0423199999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.0980799999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.12418</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.12924</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.09476</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.2036899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1.0127900000000001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.03722</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.0905899999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.0845899999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.0896399999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.1277299999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.0919300000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.1104499999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.17828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1.00732</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.0327</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.03677</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.01424</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.0874600000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.0817699999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.04756</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.09171</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.0338799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>1.02125</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.0258</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.0495399999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.08819</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.0605199999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.05186</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0831900000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.0787899999999999</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.07484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>1.0051099999999999</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.0185900000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.0008900000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.0607200000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.0747</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.07267</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.0806100000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.0925400000000001</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1.1449100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>1.00457</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.0132000000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.0210600000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.04535</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.06027</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.0496399999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.0605899999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.0764499999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.04132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1.00613</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.0171699999999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.00807</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.0337499999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.0216099999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.0244599999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.09534</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.0764400000000001</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.0966400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1.0029600000000001</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.01007</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.0084900000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.00919</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.0388299999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.0179800000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.0923400000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.04349</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.02182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3782,13 +7687,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:I18"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/CERTReview2017/LBData.xlsx
+++ b/CERTReview2017/LBData.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="for_spreadsheet" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -65,7 +65,7 @@
     </textPr>
   </connection>
   <connection id="2" name="for_spreadsheet1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -80,7 +80,7 @@
     </textPr>
   </connection>
   <connection id="3" name="for_spreadsheet10" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -97,7 +97,7 @@
     </textPr>
   </connection>
   <connection id="4" name="for_spreadsheet2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -114,7 +114,7 @@
     </textPr>
   </connection>
   <connection id="5" name="for_spreadsheet21" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -131,7 +131,7 @@
     </textPr>
   </connection>
   <connection id="6" name="for_spreadsheet3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -148,7 +148,7 @@
     </textPr>
   </connection>
   <connection id="7" name="for_spreadsheet31" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -165,7 +165,7 @@
     </textPr>
   </connection>
   <connection id="8" name="for_spreadsheet4" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -182,21 +182,21 @@
     </textPr>
   </connection>
   <connection id="9" name="for_spreadsheet5" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="10" name="for_spreadsheet51" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="11" name="for_spreadsheet6" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -213,14 +213,14 @@
     </textPr>
   </connection>
   <connection id="12" name="for_spreadsheet7" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="13" name="for_spreadsheet8" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -237,7 +237,7 @@
     </textPr>
   </connection>
   <connection id="14" name="for_spreadsheet9" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Volumes/tghaddar/PDTStitchByDimension/restapl-pdt/pdt/inputs/MetricBehavior/for_spreadsheet.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -388,15 +388,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,19 +412,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_5" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_4" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_5" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_9" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="for_spreadsheet_9" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,99 +731,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="4"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -856,34 +856,34 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>1.8536600000000001</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>1.13445</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>1.67164</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>1.3235300000000001</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>1.65306</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>1.5177</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>1.54217</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>1.4013800000000001</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>1.51976</v>
       </c>
       <c r="W3" t="s">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1.8</v>
       </c>
       <c r="B4">
@@ -924,34 +924,34 @@
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>1.8</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>1.09924</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1.13472</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1.43791</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>1.8682099999999999</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>1.7526299999999999</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>1.8398000000000001</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>2.7400600000000002</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>3.2622800000000001</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>1.69014</v>
       </c>
       <c r="W4" t="s">
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1.6</v>
       </c>
       <c r="B5">
@@ -992,34 +992,34 @@
       <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>1.6</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>1.08633</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1.11765</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>1.59762</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1.5580700000000001</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1.80244</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>2.34971</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>4.7002600000000001</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>3.77644</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>3.4413</v>
       </c>
       <c r="W5" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1.4</v>
       </c>
       <c r="B6">
@@ -1063,34 +1063,34 @@
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1.4</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>1.05193</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>1.1014900000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>1.4324699999999999</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>1.76803</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>1.9663900000000001</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>2.68811</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>2.8272300000000001</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>3.1690100000000001</v>
       </c>
       <c r="W6" t="s">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
       <c r="B7">
@@ -1134,34 +1134,34 @@
       <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>1.2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>1.04192</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>1.18286</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>1.4185099999999999</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>1.54199</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>1.6197999999999999</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>2.1918500000000001</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>3.9392100000000001</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>3.2367599999999999</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>3.11111</v>
       </c>
       <c r="W7" t="s">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8">
@@ -1205,34 +1205,34 @@
       <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>1.0567</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>1.2067699999999999</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>1.31481</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>1.3306899999999999</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>1.4527600000000001</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1.6980200000000001</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>2.4357799999999998</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>2.4545499999999998</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>3.5242300000000002</v>
       </c>
       <c r="W8" t="s">
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>0.8</v>
       </c>
       <c r="B9">
@@ -1276,34 +1276,34 @@
       <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.8</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>1.0505899999999999</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>1.0966400000000001</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>1.2036100000000001</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>1.56993</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>1.5100100000000001</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1.75291</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>1.7377800000000001</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>2.23177</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>2.5764900000000002</v>
       </c>
       <c r="W9" t="s">
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.6</v>
       </c>
       <c r="B10">
@@ -1347,34 +1347,34 @@
       <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0.6</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>1.0531600000000001</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>1.09114</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>1.06995</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>1.2147300000000001</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>1.42357</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>1.7651300000000001</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>1.6134500000000001</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>1.6775100000000001</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>2.45614</v>
       </c>
       <c r="W10" t="s">
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>0.4</v>
       </c>
       <c r="B11">
@@ -1418,34 +1418,34 @@
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>1.09456</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>1.0870299999999999</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>1.11991</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>1.2124699999999999</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>1.2261299999999999</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>1.34585</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>1.21455</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>2.0780099999999999</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>2.1276600000000001</v>
       </c>
       <c r="W11" t="s">
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>0.2</v>
       </c>
       <c r="B12">
@@ -1489,34 +1489,34 @@
       <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>1.04251</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>1.0384599999999999</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>1.0736300000000001</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>1.1121399999999999</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>1.2376</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>1.0816399999999999</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>1.3105100000000001</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>1.56427</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>1.5223899999999999</v>
       </c>
       <c r="W12" t="s">
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>0.1</v>
       </c>
       <c r="B13">
@@ -1560,34 +1560,34 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.1</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>1.0275799999999999</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>1.0417799999999999</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>1.09735</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>1.0423199999999999</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>1.0980799999999999</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>1.12418</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>1.12924</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>1.09476</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>1.2036899999999999</v>
       </c>
       <c r="W13" t="s">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>0.08</v>
       </c>
       <c r="B14">
@@ -1631,34 +1631,34 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>0.08</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>1.0127900000000001</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>1.03722</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>1.0905899999999999</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>1.0845899999999999</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>1.0896399999999999</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>1.1277299999999999</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>1.0919300000000001</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>1.1104499999999999</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>1.17828</v>
       </c>
       <c r="W14" t="s">
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>0.06</v>
       </c>
       <c r="B15">
@@ -1702,34 +1702,34 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>0.06</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>1.00732</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>1.0327</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>1.03677</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>1.01424</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>1.0874600000000001</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>1.0817699999999999</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>1.04756</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>1.09171</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>1.0338799999999999</v>
       </c>
       <c r="W15" t="s">
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>0.05</v>
       </c>
       <c r="B16">
@@ -1773,34 +1773,34 @@
       <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>0.05</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>1.02125</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>1.0258</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>1.0495399999999999</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>1.08819</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>1.0605199999999999</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>1.05186</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>1.0831900000000001</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>1.0787899999999999</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>1.07484</v>
       </c>
       <c r="W16" t="s">
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>0.04</v>
       </c>
       <c r="B17">
@@ -1844,34 +1844,34 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>0.04</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>1.0051099999999999</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>1.0185900000000001</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>1.0008900000000001</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>1.0607200000000001</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>1.0747</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>1.07267</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>1.0806100000000001</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>1.0925400000000001</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>1.1449100000000001</v>
       </c>
       <c r="W17" t="s">
@@ -1882,7 +1882,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>0.03</v>
       </c>
       <c r="B18">
@@ -1915,34 +1915,34 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>0.03</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>1.00457</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>1.0132000000000001</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>1.0210600000000001</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>1.04535</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>1.06027</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>1.0496399999999999</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>1.0605899999999999</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>1.0764499999999999</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>1.04132</v>
       </c>
       <c r="W18" t="s">
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>0.02</v>
       </c>
       <c r="B19">
@@ -1986,34 +1986,34 @@
       <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>0.02</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>1.00613</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>1.0171699999999999</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>1.00807</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>1.0337499999999999</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>1.0216099999999999</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>1.0244599999999999</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>1.09534</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>1.0764400000000001</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>1.0966400000000001</v>
       </c>
       <c r="W19" t="s">
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>0.01</v>
       </c>
       <c r="B20">
@@ -2057,34 +2057,34 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0.01</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>1.0029600000000001</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>1.01007</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>1.0084900000000001</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>1.00919</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <v>1.0388299999999999</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>1.0179800000000001</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>1.0923400000000001</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <v>1.04349</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>1.02182</v>
       </c>
       <c r="W20" t="s">
@@ -2100,97 +2100,97 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="M22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
       <c r="X22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="1">
@@ -2223,7 +2223,7 @@
       <c r="K24" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="1">
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1.8</v>
       </c>
       <c r="B25" s="1">
@@ -2291,7 +2291,7 @@
       <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>1.8</v>
       </c>
       <c r="N25" s="1">
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1.6</v>
       </c>
       <c r="B26" s="1">
@@ -2359,7 +2359,7 @@
       <c r="K26" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>1.6</v>
       </c>
       <c r="N26" s="1">
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>1.4</v>
       </c>
       <c r="B27" s="1">
@@ -2427,7 +2427,7 @@
       <c r="K27" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>1.4</v>
       </c>
       <c r="N27" s="1">
@@ -2462,7 +2462,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1.2</v>
       </c>
       <c r="B28" s="1">
@@ -2495,7 +2495,7 @@
       <c r="K28" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>1.2</v>
       </c>
       <c r="N28" s="1">
@@ -2530,7 +2530,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="1">
@@ -2563,7 +2563,7 @@
       <c r="K29" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>1</v>
       </c>
       <c r="N29" s="1">
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>0.8</v>
       </c>
       <c r="B30" s="1">
@@ -2631,7 +2631,7 @@
       <c r="K30" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>0.8</v>
       </c>
       <c r="N30" s="1">
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>0.6</v>
       </c>
       <c r="B31" s="1">
@@ -2699,7 +2699,7 @@
       <c r="K31" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>0.6</v>
       </c>
       <c r="N31" s="1">
@@ -2734,7 +2734,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>0.4</v>
       </c>
       <c r="B32" s="1">
@@ -2767,7 +2767,7 @@
       <c r="K32" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>0.4</v>
       </c>
       <c r="N32" s="1">
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>0.2</v>
       </c>
       <c r="B33" s="1">
@@ -2835,7 +2835,7 @@
       <c r="K33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>0.2</v>
       </c>
       <c r="N33" s="1">
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>0.1</v>
       </c>
       <c r="B34" s="1">
@@ -2903,7 +2903,7 @@
       <c r="K34" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>0.1</v>
       </c>
       <c r="N34" s="1">
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>0.08</v>
       </c>
       <c r="B35" s="1">
@@ -2971,7 +2971,7 @@
       <c r="K35" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>0.08</v>
       </c>
       <c r="N35" s="1">
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>0.06</v>
       </c>
       <c r="B36" s="1">
@@ -3039,7 +3039,7 @@
       <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>0.06</v>
       </c>
       <c r="N36" s="1">
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>0.05</v>
       </c>
       <c r="B37" s="1">
@@ -3107,7 +3107,7 @@
       <c r="K37" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>0.05</v>
       </c>
       <c r="N37" s="1">
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>0.04</v>
       </c>
       <c r="B38" s="1">
@@ -3175,7 +3175,7 @@
       <c r="K38" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <v>0.04</v>
       </c>
       <c r="N38" s="1">
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>0.03</v>
       </c>
       <c r="B39" s="1">
@@ -3243,7 +3243,7 @@
       <c r="K39" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <v>0.03</v>
       </c>
       <c r="N39" s="1">
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>0.02</v>
       </c>
       <c r="B40" s="1">
@@ -3311,7 +3311,7 @@
       <c r="K40" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <v>0.02</v>
       </c>
       <c r="N40" s="1">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>0.01</v>
       </c>
       <c r="B41" s="1">
@@ -3379,7 +3379,7 @@
       <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>0.01</v>
       </c>
       <c r="N41" s="1">
@@ -3429,7 +3429,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3446,95 +3446,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
@@ -3567,7 +3567,7 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="1">
@@ -3602,7 +3602,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1.8</v>
       </c>
       <c r="B4" s="1">
@@ -3635,7 +3635,7 @@
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>1.8</v>
       </c>
       <c r="N4" s="1">
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1.6</v>
       </c>
       <c r="B5" s="1">
@@ -3703,7 +3703,7 @@
       <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>1.6</v>
       </c>
       <c r="N5" s="1">
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1.4</v>
       </c>
       <c r="B6" s="1">
@@ -3771,7 +3771,7 @@
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>1.4</v>
       </c>
       <c r="N6" s="1">
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
       <c r="B7" s="1">
@@ -3839,7 +3839,7 @@
       <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>1.2</v>
       </c>
       <c r="N7" s="1">
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="1">
@@ -3907,7 +3907,7 @@
       <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="1">
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>0.8</v>
       </c>
       <c r="B9" s="1">
@@ -3975,7 +3975,7 @@
       <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.8</v>
       </c>
       <c r="N9" s="1">
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.6</v>
       </c>
       <c r="B10" s="1">
@@ -4043,7 +4043,7 @@
       <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.6</v>
       </c>
       <c r="N10" s="1">
@@ -4078,7 +4078,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>0.4</v>
       </c>
       <c r="B11" s="1">
@@ -4111,7 +4111,7 @@
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
@@ -4146,7 +4146,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>0.2</v>
       </c>
       <c r="B12" s="1">
@@ -4179,7 +4179,7 @@
       <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>0.1</v>
       </c>
       <c r="B13" s="1">
@@ -4247,7 +4247,7 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>0.08</v>
       </c>
       <c r="B14" s="1">
@@ -4315,7 +4315,7 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>0.08</v>
       </c>
       <c r="N14" s="1">
@@ -4350,7 +4350,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>0.06</v>
       </c>
       <c r="B15" s="1">
@@ -4383,7 +4383,7 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>0.06</v>
       </c>
       <c r="N15" s="1">
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>0.05</v>
       </c>
       <c r="B16" s="1">
@@ -4451,7 +4451,7 @@
       <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.05</v>
       </c>
       <c r="N16" s="1">
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>0.04</v>
       </c>
       <c r="B17" s="1">
@@ -4519,7 +4519,7 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.04</v>
       </c>
       <c r="N17" s="1">
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>0.03</v>
       </c>
       <c r="B18" s="1">
@@ -4587,7 +4587,7 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>0.03</v>
       </c>
       <c r="N18" s="1">
@@ -4622,7 +4622,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>0.02</v>
       </c>
       <c r="B19" s="1">
@@ -4655,7 +4655,7 @@
       <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>0.02</v>
       </c>
       <c r="N19" s="1">
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>0.01</v>
       </c>
       <c r="B20" s="1">
@@ -4723,7 +4723,7 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>0.01</v>
       </c>
       <c r="N20" s="1">
@@ -4758,98 +4758,98 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M21" s="3"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="M22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="1">
@@ -4882,7 +4882,7 @@
       <c r="K24" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="1">
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1.8</v>
       </c>
       <c r="B25" s="1">
@@ -4950,7 +4950,7 @@
       <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>1.8</v>
       </c>
       <c r="N25" s="1">
@@ -4982,7 +4982,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1.6</v>
       </c>
       <c r="B26" s="1">
@@ -5015,7 +5015,7 @@
       <c r="K26" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>1.6</v>
       </c>
       <c r="N26" s="1">
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>1.4</v>
       </c>
       <c r="B27" s="1">
@@ -5080,7 +5080,7 @@
       <c r="K27" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>1.4</v>
       </c>
       <c r="N27" s="1">
@@ -5115,7 +5115,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1.2</v>
       </c>
       <c r="B28" s="1">
@@ -5148,7 +5148,7 @@
       <c r="K28" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>1.2</v>
       </c>
       <c r="N28" s="1">
@@ -5183,7 +5183,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="1">
@@ -5216,7 +5216,7 @@
       <c r="K29" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>1</v>
       </c>
       <c r="N29" s="1">
@@ -5251,7 +5251,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>0.8</v>
       </c>
       <c r="B30" s="1">
@@ -5284,7 +5284,7 @@
       <c r="K30" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>0.8</v>
       </c>
       <c r="N30" s="1">
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>0.6</v>
       </c>
       <c r="B31" s="1">
@@ -5349,7 +5349,7 @@
       <c r="K31" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>0.6</v>
       </c>
       <c r="N31" s="1">
@@ -5384,7 +5384,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>0.4</v>
       </c>
       <c r="B32" s="1">
@@ -5417,7 +5417,7 @@
       <c r="K32" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>0.4</v>
       </c>
       <c r="N32" s="1">
@@ -5452,7 +5452,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>0.2</v>
       </c>
       <c r="B33" s="1">
@@ -5485,7 +5485,7 @@
       <c r="K33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>0.2</v>
       </c>
       <c r="N33" s="1">
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>0.1</v>
       </c>
       <c r="B34" s="1">
@@ -5553,7 +5553,7 @@
       <c r="K34" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>0.1</v>
       </c>
       <c r="N34" s="1">
@@ -5588,7 +5588,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>0.08</v>
       </c>
       <c r="B35" s="1">
@@ -5621,7 +5621,7 @@
       <c r="K35" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>0.08</v>
       </c>
       <c r="N35" s="1">
@@ -5656,7 +5656,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>0.06</v>
       </c>
       <c r="B36" s="1">
@@ -5689,7 +5689,7 @@
       <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>0.06</v>
       </c>
       <c r="N36" s="1">
@@ -5724,7 +5724,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>0.05</v>
       </c>
       <c r="B37" s="1">
@@ -5757,7 +5757,7 @@
       <c r="K37" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>0.05</v>
       </c>
       <c r="N37" s="1">
@@ -5792,7 +5792,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>0.04</v>
       </c>
       <c r="B38" s="1">
@@ -5825,7 +5825,7 @@
       <c r="K38" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <v>0.04</v>
       </c>
       <c r="N38" s="1">
@@ -5860,7 +5860,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>0.03</v>
       </c>
       <c r="B39" s="1">
@@ -5893,7 +5893,7 @@
       <c r="K39" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <v>0.03</v>
       </c>
       <c r="N39" s="1">
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>0.02</v>
       </c>
       <c r="B40" s="1">
@@ -5961,7 +5961,7 @@
       <c r="K40" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <v>0.02</v>
       </c>
       <c r="N40" s="1">
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>0.01</v>
       </c>
       <c r="B41" s="1">
@@ -6029,7 +6029,7 @@
       <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>0.01</v>
       </c>
       <c r="N41" s="1">
@@ -6624,524 +6624,524 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>1.8536600000000001</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>1.13445</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>1.67164</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>1.3235300000000001</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>1.65306</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>1.5177</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>1.54217</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>1.4013800000000001</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>1.51976</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1.09924</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1.13472</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1.43791</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1.8682099999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1.7526299999999999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1.8398000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2.7400600000000002</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>3.2622800000000001</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>1.69014</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1.08633</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.11765</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1.59762</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1.5580700000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.80244</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2.34971</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4.7002600000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>3.77644</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>3.4413</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.05193</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.1014900000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1.4324699999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1.76803</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1.9663900000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>2.68811</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>2.8272300000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3.1690100000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1.04192</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1.18286</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1.4185099999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1.54199</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1.6197999999999999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>2.1918500000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>3.9392100000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>3.2367599999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>3.11111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0567</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1.2067699999999999</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1.31481</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.3306899999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1.4527600000000001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1.6980200000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>2.4357799999999998</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>2.4545499999999998</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>3.5242300000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1.0505899999999999</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1.0966400000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1.2036100000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1.56993</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1.5100100000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1.75291</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1.7377800000000001</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2.23177</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>2.5764900000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1.0531600000000001</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1.09114</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1.06995</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.2147300000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1.42357</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1.7651300000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1.6134500000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1.6775100000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>2.45614</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1.09456</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1.0870299999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1.11991</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1.2124699999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.2261299999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1.34585</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1.21455</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2.0780099999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>2.1276600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1.04251</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1.0384599999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1.0736300000000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1.1121399999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1.2376</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1.0816399999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1.3105100000000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>1.56427</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>1.5223899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>1.0275799999999999</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1.0417799999999999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1.09735</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1.0423199999999999</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1.0980799999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1.12418</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1.12924</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1.09476</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>1.2036899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1.0127900000000001</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1.03722</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1.0905899999999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1.0845899999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1.0896399999999999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1.1277299999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1.0919300000000001</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1.1104499999999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>1.17828</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1.00732</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1.0327</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1.03677</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>1.01424</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1.0874600000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1.0817699999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1.04756</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1.09171</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>1.0338799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1.02125</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1.0258</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1.0495399999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1.08819</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1.0605199999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1.05186</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1.0831900000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>1.0787899999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>1.07484</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>1.0051099999999999</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1.0185900000000001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1.0008900000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>1.0607200000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1.0747</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1.07267</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1.0806100000000001</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>1.0925400000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>1.1449100000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>1.00457</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1.0132000000000001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1.0210600000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1.04535</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1.06027</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1.0496399999999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1.0605899999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>1.0764499999999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>1.04132</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>1.00613</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1.0171699999999999</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1.00807</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>1.0337499999999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1.0216099999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1.0244599999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1.09534</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1.0764400000000001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>1.0966400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>1.0029600000000001</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.01007</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>1.0084900000000001</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1.00919</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1.0388299999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1.0179800000000001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1.0923400000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>1.04349</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>1.02182</v>
       </c>
     </row>
